--- a/mynewthinking/devices.xlsx
+++ b/mynewthinking/devices.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>"Custom Phone - 5.1.0 - API 22 - 768x1280" {38342635-d62b-477c-8eab-e03f156c8476}</t>
-  </si>
-  <si>
-    <t>"&lt;inaccessible&gt;" {2f4c8685-5460-4097-972f-e413fbf748d7}</t>
-  </si>
-  <si>
-    <t>"Samsung Galaxy S6 - 5.0.0 - API 21 - 1440x2560" {7fd74138-a2e4-4cfa-be9f-c458e6eb7e5f}</t>
-  </si>
-  <si>
-    <t>"Samsung Galaxy S6 - 5.0.0 - API 21 - 1440x2560_1" {dd49b8ac-304a-4e15-91d7-5d6a9145eff8}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>"Custom Phone - 5.0.0 - API 21 - 768x1280"</t>
+  </si>
+  <si>
+    <t>"Custom Phone - 7.0.0 - API 24 - 768x1280"</t>
+  </si>
+  <si>
+    <t>"Custom Phone - 6.0.0 - API 23 - 768x1280"</t>
+  </si>
+  <si>
+    <t>"Samsung Galaxy Note 3 - 4.4.4 - API 19 - 1080x1920"</t>
   </si>
 </sst>
 </file>
@@ -383,52 +389,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/mynewthinking/devices.xlsx
+++ b/mynewthinking/devices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Devices</t>
   </si>
@@ -22,16 +22,19 @@
     <t>Run</t>
   </si>
   <si>
+    <t>"&lt;inaccessible&gt;"</t>
+  </si>
+  <si>
+    <t>"Custom Phone - 4.4.4 - API 19 - 768x1280"</t>
+  </si>
+  <si>
     <t>"Custom Phone - 5.0.0 - API 21 - 768x1280"</t>
   </si>
   <si>
+    <t>"Custom Phone - 6.0.0 - API 23 - 768x1280"</t>
+  </si>
+  <si>
     <t>"Custom Phone - 7.0.0 - API 24 - 768x1280"</t>
-  </si>
-  <si>
-    <t>"Custom Phone - 6.0.0 - API 23 - 768x1280"</t>
-  </si>
-  <si>
-    <t>"Samsung Galaxy Note 3 - 4.4.4 - API 19 - 1080x1920"</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +438,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
